--- a/nutmstatDataItems2019.xlsx
+++ b/nutmstatDataItems2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6914757796989ce8/^FSTUDY/Usyd/2021S2/STAT3888/Major project/Major/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6914757796989ce8/^FSTUDY/Usyd/2021S2/STAT3888/stat3888_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{6E9102C0-3FE8-C349-9766-EAC9277F20CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E6524D5-D8A4-4A29-B79B-03E4FA351A3E}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{6E9102C0-3FE8-C349-9766-EAC9277F20CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679E1FD3-EA3E-4D5C-9DE7-203A9CDBCFAF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4100" yWindow="4100" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biomedical Level Data Items" sheetId="1" r:id="rId1"/>
@@ -22932,8 +22932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J415"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A38" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.5"/>
@@ -25130,13 +25130,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="9"/>
+    <col min="1" max="1" width="24.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="39.69921875" style="9" customWidth="1"/>
     <col min="3" max="16384" width="11" style="9"/>
   </cols>
@@ -28332,8 +28332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D737"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B733" sqref="B733"/>
+    <sheetView topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.3984375" defaultRowHeight="12.5"/>
@@ -34177,7 +34177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB5FFCD-1E60-A34E-9A8A-A907705AE1AF}">
   <dimension ref="A1:B5926"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.5"/>
   <cols>
